--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/10,07,25 ПОКОМ КИ Новороссийск + хвост/дв 10,07,25 нррсч пок ки от филиала.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/10,07,25 ПОКОМ КИ Новороссийск + хвост/дв 10,07,25 нррсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\10,07,25 ПОКОМ КИ Новороссийск + хвост\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\07,25\10,07,25 ПОКОМ КИ Новороссийск + хвост\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5458-2553-4DAD-9CED-ECD086A0154B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FEA43-D420-4FDC-8266-E1E2F3EC7AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="175">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -588,6 +588,9 @@
   <si>
     <t>17,07,(2)</t>
   </si>
+  <si>
+    <t>переходящий запас</t>
+  </si>
 </sst>
 </file>
 
@@ -1098,13 +1101,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BE496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1123,12 +1127,13 @@
     <col min="20" max="21" width="10.28515625" customWidth="1"/>
     <col min="22" max="23" width="7.28515625" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" customWidth="1"/>
     <col min="26" max="27" width="5" customWidth="1"/>
     <col min="28" max="37" width="6" customWidth="1"/>
-    <col min="38" max="38" width="8.28515625" customWidth="1"/>
+    <col min="38" max="38" width="5.140625" customWidth="1"/>
     <col min="39" max="41" width="7" customWidth="1"/>
-    <col min="42" max="57" width="3" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
+    <col min="43" max="57" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -1173,7 +1178,9 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
+      <c r="AP1" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
@@ -1618,7 +1625,10 @@
         <f>SUM(AO6:AO496)</f>
         <v>3013</v>
       </c>
-      <c r="AP5" s="2"/>
+      <c r="AP5" s="6">
+        <f>SUM(AP6:AP496)</f>
+        <v>9640.6584000000057</v>
+      </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -1753,14 +1763,17 @@
         <v>350</v>
       </c>
       <c r="AN6" s="2">
-        <f>ROUND(G6*V6,0)</f>
+        <f t="shared" ref="AN6:AN37" si="7">ROUND(G6*V6,0)</f>
         <v>199</v>
       </c>
       <c r="AO6" s="2">
         <f>ROUND(W6*G6,0)</f>
         <v>50</v>
       </c>
-      <c r="AP6" s="2"/>
+      <c r="AP6" s="2">
+        <f>P6*G6*3</f>
+        <v>148.53719999999998</v>
+      </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
@@ -1821,7 +1834,7 @@
         <v>18.227399999999999</v>
       </c>
       <c r="Q7" s="15">
-        <f t="shared" ref="Q7" si="7">13*P7-F7</f>
+        <f t="shared" ref="Q7" si="8">13*P7-F7</f>
         <v>128.00319999999999</v>
       </c>
       <c r="R7" s="15">
@@ -1829,13 +1842,13 @@
         <v>100</v>
       </c>
       <c r="S7" s="15">
-        <f t="shared" ref="S7:S70" si="8">R7-T7</f>
+        <f t="shared" ref="S7:S70" si="9">R7-T7</f>
         <v>100</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15">
-        <f t="shared" ref="V7:V10" si="9">T7+U7</f>
+        <f t="shared" ref="V7:V10" si="10">T7+U7</f>
         <v>0</v>
       </c>
       <c r="W7" s="15"/>
@@ -1844,7 +1857,7 @@
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z70" si="10">(F7+R7+U7)/P7</f>
+        <f t="shared" ref="Z7:Z70" si="11">(F7+R7+U7)/P7</f>
         <v>11.463675565357649</v>
       </c>
       <c r="AA7" s="2">
@@ -1883,18 +1896,21 @@
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2">
-        <f t="shared" ref="AM7:AM70" si="11">ROUND(G7*S7,0)</f>
+        <f t="shared" ref="AM7:AM70" si="12">ROUND(G7*S7,0)</f>
         <v>100</v>
       </c>
       <c r="AN7" s="2">
-        <f>ROUND(G7*V7,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" ref="AO7:AO70" si="12">ROUND(W7*G7,0)</f>
+        <f t="shared" ref="AO7:AO70" si="13">ROUND(W7*G7,0)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="2"/>
+      <c r="AP7" s="2">
+        <f t="shared" ref="AP7:AP10" si="14">P7*G7*3</f>
+        <v>54.682199999999995</v>
+      </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
@@ -1959,30 +1975,30 @@
         <v>153.43899999999999</v>
       </c>
       <c r="R8" s="15">
-        <f t="shared" ref="R8:R70" si="13">Q8</f>
+        <f t="shared" ref="R8:R70" si="15">Q8</f>
         <v>153.43899999999999</v>
       </c>
       <c r="S8" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>153.43899999999999</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15">
-        <f t="shared" ref="U8:U10" si="14">2*P8</f>
+        <f t="shared" ref="U8:U10" si="16">2*P8</f>
         <v>40.155999999999999</v>
       </c>
       <c r="V8" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.155999999999999</v>
       </c>
       <c r="W8" s="15">
-        <f t="shared" ref="W8:W10" si="15">P8</f>
+        <f t="shared" ref="W8:W10" si="17">P8</f>
         <v>20.077999999999999</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AA8" s="2">
@@ -2021,18 +2037,21 @@
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="AN8" s="2">
-        <f>ROUND(G8*V8,0)</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="AP8" s="2"/>
+      <c r="AP8" s="2">
+        <f t="shared" si="14"/>
+        <v>60.233999999999995</v>
+      </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
@@ -2097,30 +2116,30 @@
         <v>599</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>599</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>599</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>158</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
       <c r="X9" s="15"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AA9" s="2">
@@ -2159,18 +2178,21 @@
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="AN9" s="2">
-        <f>ROUND(G9*V9,0)</f>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="AP9" s="2"/>
+      <c r="AP9" s="2">
+        <f t="shared" si="14"/>
+        <v>94.800000000000011</v>
+      </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
@@ -2235,32 +2257,32 @@
         <v>869.6</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>869.6</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>669.6</v>
       </c>
       <c r="T10" s="15">
         <v>200</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>224.8</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>424.8</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>112.4</v>
       </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AA10" s="2">
@@ -2299,18 +2321,21 @@
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>221</v>
       </c>
       <c r="AN10" s="2">
-        <f>ROUND(G10*V10,0)</f>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="AP10" s="2"/>
+      <c r="AP10" s="2">
+        <f t="shared" si="14"/>
+        <v>111.27600000000001</v>
+      </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
@@ -2327,7 +2352,7 @@
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" hidden="1">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -2362,11 +2387,11 @@
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T11" s="15"/>
@@ -2376,7 +2401,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA11" s="7" t="e">
@@ -2417,15 +2442,15 @@
         <v>45</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <f>ROUND(G11*V11,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP11" s="2"/>
@@ -2490,24 +2515,24 @@
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15">
-        <f t="shared" ref="V12:V14" si="16">T12+U12</f>
+        <f t="shared" ref="V12:V14" si="18">T12+U12</f>
         <v>0</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.617977528089886</v>
       </c>
       <c r="AA12" s="2">
@@ -2548,18 +2573,21 @@
         <v>47</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <f>ROUND(G12*V12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="2"/>
+      <c r="AN12" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" ref="AP12:AP14" si="19">P12*G12*3</f>
+        <v>9.0780000000000012</v>
+      </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
@@ -2624,24 +2652,24 @@
         <v>327.39999999999998</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" ref="R13:R14" si="17">X13</f>
+        <f t="shared" ref="R13:R14" si="20">X13</f>
         <v>400</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15">
-        <f t="shared" ref="U13:U14" si="18">2*P13</f>
+        <f t="shared" ref="U13:U14" si="21">2*P13</f>
         <v>81.599999999999994</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>81.599999999999994</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" ref="W13:W14" si="19">P13</f>
+        <f t="shared" ref="W13:W14" si="22">P13</f>
         <v>40.799999999999997</v>
       </c>
       <c r="X13" s="15">
@@ -2649,7 +2677,7 @@
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.779411764705884</v>
       </c>
       <c r="AA13" s="2">
@@ -2688,18 +2716,21 @@
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="AN13" s="2">
-        <f>ROUND(G13*V13,0)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="AP13" s="2"/>
+      <c r="AP13" s="2">
+        <f t="shared" si="19"/>
+        <v>36.72</v>
+      </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
@@ -2764,24 +2795,24 @@
         <v>231.59999999999997</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>250</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15">
+        <f t="shared" si="21"/>
+        <v>60.8</v>
+      </c>
+      <c r="V14" s="15">
         <f t="shared" si="18"/>
         <v>60.8</v>
       </c>
-      <c r="V14" s="15">
-        <f t="shared" si="16"/>
-        <v>60.8</v>
-      </c>
       <c r="W14" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>30.4</v>
       </c>
       <c r="X14" s="15">
@@ -2789,7 +2820,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.605263157894738</v>
       </c>
       <c r="AA14" s="2">
@@ -2828,18 +2859,21 @@
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="AN14" s="2">
-        <f>ROUND(G14*V14,0)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AP14" s="2"/>
+      <c r="AP14" s="2">
+        <f t="shared" si="19"/>
+        <v>15.504000000000001</v>
+      </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -2856,7 +2890,7 @@
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" hidden="1">
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
@@ -2897,11 +2931,11 @@
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T15" s="15"/>
@@ -2911,7 +2945,7 @@
       <c r="X15" s="17"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA15" s="9">
@@ -2952,15 +2986,15 @@
         <v>52</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN15" s="2">
-        <f>ROUND(G15*V15,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP15" s="2"/>
@@ -3024,28 +3058,28 @@
         <v>7.8952</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" ref="Q16" si="20">13*P16-F16</f>
+        <f t="shared" ref="Q16" si="23">13*P16-F16</f>
         <v>41.836600000000004</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41.836600000000004</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.836600000000004</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15">
-        <f t="shared" ref="V16:V18" si="21">T16+U16</f>
+        <f t="shared" ref="V16:V18" si="24">T16+U16</f>
         <v>0</v>
       </c>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA16" s="2">
@@ -3084,18 +3118,21 @@
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="AN16" s="2">
-        <f>ROUND(G16*V16,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="2"/>
+      <c r="AP16" s="2">
+        <f t="shared" ref="AP16:AP18" si="25">P16*G16*3</f>
+        <v>23.685600000000001</v>
+      </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -3164,7 +3201,7 @@
         <v>1900</v>
       </c>
       <c r="S17" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1700</v>
       </c>
       <c r="T17" s="15">
@@ -3175,7 +3212,7 @@
         <v>817.29899999999998</v>
       </c>
       <c r="V17" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1017.299</v>
       </c>
       <c r="W17" s="15">
@@ -3187,7 +3224,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.020023271776914</v>
       </c>
       <c r="AA17" s="2">
@@ -3228,18 +3265,21 @@
         <v>55</v>
       </c>
       <c r="AM17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1700</v>
       </c>
       <c r="AN17" s="2">
-        <f>ROUND(G17*V17,0)</f>
+        <f t="shared" si="7"/>
         <v>1017</v>
       </c>
       <c r="AO17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
-      <c r="AP17" s="2"/>
+      <c r="AP17" s="2">
+        <f t="shared" si="25"/>
+        <v>817.29899999999998</v>
+      </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -3301,24 +3341,24 @@
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.229538120538479</v>
       </c>
       <c r="AA18" s="2">
@@ -3359,18 +3399,21 @@
         <v>47</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="2">
-        <f>ROUND(G18*V18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="2"/>
+      <c r="AN18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="25"/>
+        <v>18.407399999999999</v>
+      </c>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
@@ -3387,7 +3430,7 @@
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:57" hidden="1">
       <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
@@ -3430,11 +3473,11 @@
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S19" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T19" s="15"/>
@@ -3444,7 +3487,7 @@
       <c r="X19" s="17"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5</v>
       </c>
       <c r="AA19" s="9">
@@ -3485,15 +3528,15 @@
         <v>59</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN19" s="2">
-        <f>ROUND(G19*V19,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP19" s="2"/>
@@ -3563,11 +3606,11 @@
         <v>2328.0840000000007</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2328.0840000000007</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2028.0840000000007</v>
       </c>
       <c r="T20" s="15">
@@ -3578,7 +3621,7 @@
         <v>861.09300000000019</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" ref="V20:V21" si="22">T20+U20</f>
+        <f t="shared" ref="V20:V21" si="26">T20+U20</f>
         <v>1161.0930000000003</v>
       </c>
       <c r="W20" s="15">
@@ -3588,7 +3631,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AA20" s="2">
@@ -3629,18 +3672,21 @@
         <v>60</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2028</v>
       </c>
       <c r="AN20" s="2">
-        <f>ROUND(G20*V20,0)</f>
+        <f t="shared" si="7"/>
         <v>1161</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>287</v>
       </c>
-      <c r="AP20" s="2"/>
+      <c r="AP20" s="2">
+        <f t="shared" ref="AP20:AP21" si="27">P20*G20*3</f>
+        <v>861.09300000000019</v>
+      </c>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
@@ -3705,24 +3751,24 @@
         <v>55.453800000000001</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>55.453800000000001</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.453800000000001</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.000000000000002</v>
       </c>
       <c r="AA21" s="2">
@@ -3761,18 +3807,21 @@
       </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AN21" s="2">
-        <f>ROUND(G21*V21,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="2"/>
+      <c r="AP21" s="2">
+        <f t="shared" si="27"/>
+        <v>19.987200000000001</v>
+      </c>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
@@ -3789,7 +3838,7 @@
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:57" hidden="1">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -3836,11 +3885,11 @@
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T22" s="15"/>
@@ -3850,7 +3899,7 @@
       <c r="X22" s="17"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.931172229212855</v>
       </c>
       <c r="AA22" s="9">
@@ -3891,15 +3940,15 @@
         <v>64</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN22" s="2">
-        <f>ROUND(G22*V22,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP22" s="2"/>
@@ -3971,13 +4020,13 @@
         <v>50</v>
       </c>
       <c r="S23" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15">
-        <f t="shared" ref="V23:V64" si="23">T23+U23</f>
+        <f t="shared" ref="V23:V64" si="28">T23+U23</f>
         <v>0</v>
       </c>
       <c r="W23" s="15"/>
@@ -3986,7 +4035,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.176600229973168</v>
       </c>
       <c r="AA23" s="2">
@@ -4025,18 +4074,21 @@
       </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AN23" s="2">
-        <f>ROUND(G23*V23,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="2"/>
+      <c r="AP23" s="2">
+        <f t="shared" ref="AP23:AP64" si="29">P23*G23*3</f>
+        <v>12.523200000000001</v>
+      </c>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
@@ -4098,24 +4150,24 @@
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S24" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23.012358783835015</v>
       </c>
       <c r="AA24" s="2">
@@ -4156,18 +4208,21 @@
         <v>47</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN24" s="2">
-        <f>ROUND(G24*V24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="2"/>
+      <c r="AN24" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="29"/>
+        <v>7.9133999999999993</v>
+      </c>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
@@ -4236,13 +4291,13 @@
         <v>180</v>
       </c>
       <c r="S25" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W25" s="15"/>
@@ -4251,7 +4306,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.482668368975423</v>
       </c>
       <c r="AA25" s="2">
@@ -4290,18 +4345,21 @@
       </c>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="AN25" s="2">
-        <f>ROUND(G25*V25,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="2"/>
+      <c r="AP25" s="2">
+        <f t="shared" si="29"/>
+        <v>46.995000000000005</v>
+      </c>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
@@ -4366,30 +4424,30 @@
         <v>388.42739999999992</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>388.42739999999992</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>388.42739999999992</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="15">
-        <f t="shared" ref="U26:U29" si="24">2*P26</f>
+        <f t="shared" ref="U26:U29" si="30">2*P26</f>
         <v>92.856799999999993</v>
       </c>
       <c r="V26" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>92.856799999999993</v>
       </c>
       <c r="W26" s="15">
-        <f t="shared" ref="W26:W30" si="25">P26</f>
+        <f t="shared" ref="W26:W30" si="31">P26</f>
         <v>46.428399999999996</v>
       </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.999999999999998</v>
       </c>
       <c r="AA26" s="2">
@@ -4428,18 +4486,21 @@
       </c>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>388</v>
       </c>
       <c r="AN26" s="2">
-        <f>ROUND(G26*V26,0)</f>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="AP26" s="2"/>
+      <c r="AP26" s="2">
+        <f t="shared" si="29"/>
+        <v>139.28519999999997</v>
+      </c>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
@@ -4500,15 +4561,15 @@
         <v>79.762599999999992</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" ref="Q27:Q59" si="26">13*P27-F27</f>
+        <f t="shared" ref="Q27:Q59" si="32">13*P27-F27</f>
         <v>493.25979999999981</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" ref="R27:R30" si="27">X27</f>
+        <f t="shared" ref="R27:R30" si="33">X27</f>
         <v>350</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="T27" s="15"/>
@@ -4516,11 +4577,11 @@
         <v>60</v>
       </c>
       <c r="V27" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="W27" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>79.762599999999992</v>
       </c>
       <c r="X27" s="15">
@@ -4528,7 +4589,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.956154889634993</v>
       </c>
       <c r="AA27" s="2">
@@ -4569,18 +4630,21 @@
         <v>60</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
       <c r="AN27" s="2">
-        <f>ROUND(G27*V27,0)</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="AP27" s="2"/>
+      <c r="AP27" s="2">
+        <f t="shared" si="29"/>
+        <v>239.28779999999998</v>
+      </c>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
@@ -4641,28 +4705,28 @@
         <v>40.771599999999999</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>344.21680000000003</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>280</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>81.543199999999999</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>81.543199999999999</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40.771599999999999</v>
       </c>
       <c r="X28" s="15">
@@ -4670,7 +4734,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.424962473878875</v>
       </c>
       <c r="AA28" s="2">
@@ -4709,18 +4773,21 @@
       </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="AN28" s="2">
-        <f>ROUND(G28*V28,0)</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="AP28" s="2"/>
+      <c r="AP28" s="2">
+        <f t="shared" si="29"/>
+        <v>122.31479999999999</v>
+      </c>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
@@ -4781,30 +4848,30 @@
         <v>112.2542</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>841.47259999999994</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>650</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="T29" s="15">
         <v>100</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>224.50839999999999</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>324.50839999999999</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>112.2542</v>
       </c>
       <c r="X29" s="15">
@@ -4812,7 +4879,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.294294556462029</v>
       </c>
       <c r="AA29" s="2">
@@ -4851,18 +4918,21 @@
       </c>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550</v>
       </c>
       <c r="AN29" s="2">
-        <f>ROUND(G29*V29,0)</f>
+        <f t="shared" si="7"/>
         <v>325</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
-      <c r="AP29" s="2"/>
+      <c r="AP29" s="2">
+        <f t="shared" si="29"/>
+        <v>336.76260000000002</v>
+      </c>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -4923,15 +4993,15 @@
         <v>715.63319999999999</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2585.8855999999996</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>800</v>
       </c>
       <c r="T30" s="15">
@@ -4942,11 +5012,11 @@
         <v>2146.8995999999997</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2346.8995999999997</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>715.63319999999999</v>
       </c>
       <c r="X30" s="15">
@@ -4954,7 +5024,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.783940711526517</v>
       </c>
       <c r="AA30" s="2">
@@ -4993,18 +5063,21 @@
       </c>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="AN30" s="2">
-        <f>ROUND(G30*V30,0)</f>
+        <f t="shared" si="7"/>
         <v>2347</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>716</v>
       </c>
-      <c r="AP30" s="2"/>
+      <c r="AP30" s="2">
+        <f t="shared" si="29"/>
+        <v>2146.8995999999997</v>
+      </c>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
@@ -5066,24 +5139,24 @@
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.280700984800298</v>
       </c>
       <c r="AA31" s="2">
@@ -5122,18 +5195,21 @@
       </c>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="2">
-        <f>ROUND(G31*V31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP31" s="2"/>
+      <c r="AN31" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="2">
+        <f t="shared" si="29"/>
+        <v>27.355800000000002</v>
+      </c>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
@@ -5194,7 +5270,7 @@
         <v>27.889400000000002</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" ref="Q32:Q33" si="28">10*P32-F32</f>
+        <f t="shared" ref="Q32:Q33" si="34">10*P32-F32</f>
         <v>213.48500000000001</v>
       </c>
       <c r="R32" s="15">
@@ -5202,20 +5278,20 @@
         <v>120</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15">
-        <f t="shared" ref="U32:U40" si="29">2*P32</f>
+        <f t="shared" ref="U32:U40" si="35">2*P32</f>
         <v>55.778800000000004</v>
       </c>
       <c r="V32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>55.778800000000004</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" ref="W32:W40" si="30">P32</f>
+        <f t="shared" ref="W32:W40" si="36">P32</f>
         <v>27.889400000000002</v>
       </c>
       <c r="X32" s="15">
@@ -5223,7 +5299,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.648009638070377</v>
       </c>
       <c r="AA32" s="2">
@@ -5262,18 +5338,21 @@
       </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="AN32" s="2">
-        <f>ROUND(G32*V32,0)</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="AP32" s="2"/>
+      <c r="AP32" s="2">
+        <f t="shared" si="29"/>
+        <v>83.668200000000013</v>
+      </c>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
@@ -5334,34 +5413,34 @@
         <v>28.6</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>234</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>234</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>57.2</v>
       </c>
       <c r="V33" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>57.2</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>28.6</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.999999999999998</v>
       </c>
       <c r="AA33" s="2">
@@ -5400,18 +5479,21 @@
       </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="AN33" s="2">
-        <f>ROUND(G33*V33,0)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="AP33" s="2"/>
+      <c r="AP33" s="2">
+        <f t="shared" si="29"/>
+        <v>30.03</v>
+      </c>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
@@ -5476,26 +5558,26 @@
         <v>664.2</v>
       </c>
       <c r="R34" s="15">
-        <f t="shared" ref="R34:R40" si="31">X34</f>
+        <f t="shared" ref="R34:R40" si="37">X34</f>
         <v>850</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>650</v>
       </c>
       <c r="T34" s="15">
         <v>200</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>166.8</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>366.8</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>83.4</v>
       </c>
       <c r="X34" s="15">
@@ -5503,7 +5585,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.227817745803357</v>
       </c>
       <c r="AA34" s="2">
@@ -5542,18 +5624,21 @@
       </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>260</v>
       </c>
       <c r="AN34" s="2">
-        <f>ROUND(G34*V34,0)</f>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="AP34" s="2"/>
+      <c r="AP34" s="2">
+        <f t="shared" si="29"/>
+        <v>100.08000000000001</v>
+      </c>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
@@ -5618,26 +5703,26 @@
         <v>690</v>
       </c>
       <c r="R35" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>750</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="T35" s="15">
         <v>200</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>176.4</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>376.4</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>88.2</v>
       </c>
       <c r="X35" s="15">
@@ -5645,7 +5730,7 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.680272108843537</v>
       </c>
       <c r="AA35" s="2">
@@ -5684,18 +5769,21 @@
       </c>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="AN35" s="2">
-        <f>ROUND(G35*V35,0)</f>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="AP35" s="2"/>
+      <c r="AP35" s="2">
+        <f t="shared" si="29"/>
+        <v>105.84</v>
+      </c>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
@@ -5756,28 +5844,28 @@
         <v>46.8</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" ref="Q36:Q37" si="32">9*P36-F36</f>
+        <f t="shared" ref="Q36:Q37" si="38">9*P36-F36</f>
         <v>351.2</v>
       </c>
       <c r="R36" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>450</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>93.6</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>93.6</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>46.8</v>
       </c>
       <c r="X36" s="15">
@@ -5785,7 +5873,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.111111111111112</v>
       </c>
       <c r="AA36" s="2">
@@ -5824,18 +5912,21 @@
       </c>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="AN36" s="2">
-        <f>ROUND(G36*V36,0)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="AP36" s="2"/>
+      <c r="AP36" s="2">
+        <f t="shared" si="29"/>
+        <v>56.16</v>
+      </c>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
@@ -5896,28 +5987,28 @@
         <v>44.4</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>356.59999999999997</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>450</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="T37" s="15"/>
       <c r="U37" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>88.8</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>88.8</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>44.4</v>
       </c>
       <c r="X37" s="15">
@@ -5925,7 +6016,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.103603603603602</v>
       </c>
       <c r="AA37" s="2">
@@ -5964,18 +6055,21 @@
       </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="AN37" s="2">
-        <f>ROUND(G37*V37,0)</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AO37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="AP37" s="2"/>
+      <c r="AP37" s="2">
+        <f t="shared" si="29"/>
+        <v>53.28</v>
+      </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
@@ -6025,39 +6119,39 @@
         <v>189</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" ref="L38:L69" si="33">E38-K38</f>
+        <f t="shared" ref="L38:L69" si="39">E38-K38</f>
         <v>-6</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:P69" si="34">E38/5</f>
+        <f t="shared" ref="P38:P69" si="40">E38/5</f>
         <v>36.6</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>301.8</v>
       </c>
       <c r="R38" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>500</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>73.2</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>73.2</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>36.6</v>
       </c>
       <c r="X38" s="15">
@@ -6065,11 +6159,11 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.415300546448087</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" ref="AA38:AA69" si="35">F38/P38</f>
+        <f t="shared" ref="AA38:AA69" si="41">F38/P38</f>
         <v>4.7540983606557372</v>
       </c>
       <c r="AB38" s="2">
@@ -6104,18 +6198,21 @@
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="AN38" s="2">
-        <f>ROUND(G38*V38,0)</f>
+        <f t="shared" ref="AN38:AN69" si="42">ROUND(G38*V38,0)</f>
         <v>7</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="AP38" s="2"/>
+      <c r="AP38" s="2">
+        <f t="shared" si="29"/>
+        <v>10.98</v>
+      </c>
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
@@ -6165,14 +6262,14 @@
         <v>439</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-31</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>81.599999999999994</v>
       </c>
       <c r="Q39" s="15">
@@ -6180,26 +6277,26 @@
         <v>647.79999999999995</v>
       </c>
       <c r="R39" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>850</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>650</v>
       </c>
       <c r="T39" s="15">
         <v>200</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>163.19999999999999</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>363.2</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>81.599999999999994</v>
       </c>
       <c r="X39" s="15">
@@ -6207,11 +6304,11 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.477941176470591</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.1274509803921573E-2</v>
       </c>
       <c r="AB39" s="2">
@@ -6246,18 +6343,21 @@
       </c>
       <c r="AL39" s="2"/>
       <c r="AM39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>215</v>
       </c>
       <c r="AN39" s="2">
-        <f>ROUND(G39*V39,0)</f>
+        <f t="shared" si="42"/>
         <v>120</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="AP39" s="2"/>
+      <c r="AP39" s="2">
+        <f t="shared" si="29"/>
+        <v>80.784000000000006</v>
+      </c>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2"/>
@@ -6307,14 +6407,14 @@
         <v>311</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-30</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>56.2</v>
       </c>
       <c r="Q40" s="15">
@@ -6322,26 +6422,26 @@
         <v>453.8</v>
       </c>
       <c r="R40" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>550</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="T40" s="15">
         <v>100</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>112.4</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>212.4</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>56.2</v>
       </c>
       <c r="X40" s="15">
@@ -6349,11 +6449,11 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.711743772241991</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.92526690391459065</v>
       </c>
       <c r="AB40" s="2">
@@ -6390,18 +6490,21 @@
         <v>55</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="AN40" s="2">
-        <f>ROUND(G40*V40,0)</f>
+        <f t="shared" si="42"/>
         <v>74</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="AP40" s="2"/>
+      <c r="AP40" s="2">
+        <f t="shared" si="29"/>
+        <v>59.009999999999991</v>
+      </c>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
       <c r="AS40" s="2"/>
@@ -6453,43 +6556,43 @@
         <v>12.1</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>20.575000000000003</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>6.535000000000001</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>43.800000000000011</v>
       </c>
       <c r="R41" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43.800000000000011</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.800000000000011</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.2976281560826308</v>
       </c>
       <c r="AB41" s="2">
@@ -6526,18 +6629,21 @@
         <v>84</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="AN41" s="2">
-        <f>ROUND(G41*V41,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP41" s="2"/>
+      <c r="AP41" s="2">
+        <f t="shared" si="29"/>
+        <v>19.605000000000004</v>
+      </c>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
       <c r="AS41" s="2"/>
@@ -6587,14 +6693,14 @@
         <v>247</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-30</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>43.4</v>
       </c>
       <c r="Q42" s="15">
@@ -6602,34 +6708,34 @@
         <v>365.4</v>
       </c>
       <c r="R42" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>365.4</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>365.4</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="15">
-        <f t="shared" ref="U42:U46" si="36">2*P42</f>
+        <f t="shared" ref="U42:U46" si="43">2*P42</f>
         <v>86.8</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>86.8</v>
       </c>
       <c r="W42" s="15">
-        <f t="shared" ref="W42:W46" si="37">P42</f>
+        <f t="shared" ref="W42:W46" si="44">P42</f>
         <v>43.4</v>
       </c>
       <c r="X42" s="15"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.999999999999998</v>
       </c>
       <c r="AA42" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>2.5806451612903225</v>
       </c>
       <c r="AB42" s="2">
@@ -6664,18 +6770,21 @@
       </c>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="AN42" s="2">
-        <f>ROUND(G42*V42,0)</f>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AO42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="AP42" s="2"/>
+      <c r="AP42" s="2">
+        <f t="shared" si="29"/>
+        <v>45.569999999999993</v>
+      </c>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
@@ -6727,14 +6836,14 @@
         <v>318</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>64.2</v>
       </c>
       <c r="Q43" s="15">
@@ -6746,20 +6855,20 @@
         <v>550</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>128.4</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>128.4</v>
       </c>
       <c r="W43" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>64.2</v>
       </c>
       <c r="X43" s="15">
@@ -6767,11 +6876,11 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.875389408099688</v>
       </c>
       <c r="AA43" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.308411214953271</v>
       </c>
       <c r="AB43" s="2">
@@ -6806,18 +6915,21 @@
       </c>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>193</v>
       </c>
       <c r="AN43" s="2">
-        <f>ROUND(G43*V43,0)</f>
+        <f t="shared" si="42"/>
         <v>45</v>
       </c>
       <c r="AO43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="AP43" s="2"/>
+      <c r="AP43" s="2">
+        <f t="shared" si="29"/>
+        <v>67.41</v>
+      </c>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
@@ -6867,14 +6979,14 @@
         <v>715.60299999999995</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-220.14399999999995</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>99.091800000000006</v>
       </c>
       <c r="Q44" s="15">
@@ -6882,36 +6994,36 @@
         <v>750.73080000000004</v>
       </c>
       <c r="R44" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>750.73080000000004</v>
       </c>
       <c r="S44" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550.73080000000004</v>
       </c>
       <c r="T44" s="15">
         <v>200</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>198.18360000000001</v>
       </c>
       <c r="V44" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>398.18360000000001</v>
       </c>
       <c r="W44" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>99.091800000000006</v>
       </c>
       <c r="X44" s="15"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.4238857302016914</v>
       </c>
       <c r="AB44" s="2">
@@ -6946,18 +7058,21 @@
       </c>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>551</v>
       </c>
       <c r="AN44" s="2">
-        <f>ROUND(G44*V44,0)</f>
+        <f t="shared" si="42"/>
         <v>398</v>
       </c>
       <c r="AO44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
-      <c r="AP44" s="2"/>
+      <c r="AP44" s="2">
+        <f t="shared" si="29"/>
+        <v>297.27539999999999</v>
+      </c>
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
@@ -7007,14 +7122,14 @@
         <v>137.114</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-3.6440000000000055</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>26.693999999999999</v>
       </c>
       <c r="Q45" s="15">
@@ -7026,20 +7141,20 @@
         <v>300</v>
       </c>
       <c r="S45" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="T45" s="15"/>
       <c r="U45" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>53.387999999999998</v>
       </c>
       <c r="V45" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>53.387999999999998</v>
       </c>
       <c r="W45" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>26.693999999999999</v>
       </c>
       <c r="X45" s="15">
@@ -7047,11 +7162,11 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.73720686296546</v>
       </c>
       <c r="AA45" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.49872630553682479</v>
       </c>
       <c r="AB45" s="2">
@@ -7086,18 +7201,21 @@
       </c>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AN45" s="2">
-        <f>ROUND(G45*V45,0)</f>
+        <f t="shared" si="42"/>
         <v>53</v>
       </c>
       <c r="AO45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="AP45" s="2"/>
+      <c r="AP45" s="2">
+        <f t="shared" si="29"/>
+        <v>80.081999999999994</v>
+      </c>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
@@ -7147,14 +7265,14 @@
         <v>312.79899999999998</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-98.437999999999988</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>42.872199999999999</v>
       </c>
       <c r="Q46" s="15">
@@ -7162,34 +7280,34 @@
         <v>352.10199999999998</v>
       </c>
       <c r="R46" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>352.10199999999998</v>
       </c>
       <c r="S46" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>352.10199999999998</v>
       </c>
       <c r="T46" s="15"/>
       <c r="U46" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>85.744399999999999</v>
       </c>
       <c r="V46" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>85.744399999999999</v>
       </c>
       <c r="W46" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>42.872199999999999</v>
       </c>
       <c r="X46" s="15"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AA46" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.7871721068664543</v>
       </c>
       <c r="AB46" s="2">
@@ -7224,18 +7342,21 @@
       </c>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>352</v>
       </c>
       <c r="AN46" s="2">
-        <f>ROUND(G46*V46,0)</f>
+        <f t="shared" si="42"/>
         <v>86</v>
       </c>
       <c r="AO46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="AP46" s="2"/>
+      <c r="AP46" s="2">
+        <f t="shared" si="29"/>
+        <v>128.61660000000001</v>
+      </c>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
@@ -7285,40 +7406,40 @@
         <v>126.877</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-13.736999999999995</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>22.628</v>
       </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S47" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16.189499734841789</v>
       </c>
       <c r="AA47" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>16.189499734841789</v>
       </c>
       <c r="AB47" s="2">
@@ -7355,18 +7476,21 @@
         <v>92</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN47" s="2">
-        <f>ROUND(G47*V47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO47" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP47" s="2"/>
+      <c r="AN47" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP47" s="2">
+        <f t="shared" si="29"/>
+        <v>67.884</v>
+      </c>
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
@@ -7418,14 +7542,14 @@
         <v>527</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>224</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>150.19999999999999</v>
       </c>
       <c r="Q48" s="15">
@@ -7437,7 +7561,7 @@
         <v>1500</v>
       </c>
       <c r="S48" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
       <c r="T48" s="15">
@@ -7448,11 +7572,11 @@
         <v>450.59999999999997</v>
       </c>
       <c r="V48" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>850.59999999999991</v>
       </c>
       <c r="W48" s="15">
-        <f t="shared" ref="W48:W52" si="38">P48</f>
+        <f t="shared" ref="W48:W52" si="45">P48</f>
         <v>150.19999999999999</v>
       </c>
       <c r="X48" s="15">
@@ -7460,11 +7584,11 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.898801597869507</v>
       </c>
       <c r="AA48" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.91211717709720375</v>
       </c>
       <c r="AB48" s="2">
@@ -7499,18 +7623,21 @@
       </c>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>495</v>
       </c>
       <c r="AN48" s="2">
-        <f>ROUND(G48*V48,0)</f>
+        <f t="shared" si="42"/>
         <v>383</v>
       </c>
       <c r="AO48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="AP48" s="2"/>
+      <c r="AP48" s="2">
+        <f t="shared" si="29"/>
+        <v>202.77</v>
+      </c>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
@@ -7560,49 +7687,49 @@
         <v>331.36799999999999</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-94.584000000000003</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>47.3568</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>342.25740000000008</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>342.25740000000008</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342.25740000000008</v>
       </c>
       <c r="T49" s="15"/>
       <c r="U49" s="15">
-        <f t="shared" ref="U49:U52" si="39">2*P49</f>
+        <f t="shared" ref="U49:U52" si="46">2*P49</f>
         <v>94.7136</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>94.7136</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>47.3568</v>
       </c>
       <c r="X49" s="15"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.000000000000002</v>
       </c>
       <c r="AA49" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5.7727929251976482</v>
       </c>
       <c r="AB49" s="2">
@@ -7637,18 +7764,21 @@
       </c>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>342</v>
       </c>
       <c r="AN49" s="2">
-        <f>ROUND(G49*V49,0)</f>
+        <f t="shared" si="42"/>
         <v>95</v>
       </c>
       <c r="AO49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="AP49" s="2"/>
+      <c r="AP49" s="2">
+        <f t="shared" si="29"/>
+        <v>142.07040000000001</v>
+      </c>
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
@@ -7698,14 +7828,14 @@
         <v>545</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-25</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>104</v>
       </c>
       <c r="Q50" s="15">
@@ -7713,36 +7843,36 @@
         <v>818</v>
       </c>
       <c r="R50" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>818</v>
       </c>
       <c r="S50" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>618</v>
       </c>
       <c r="T50" s="15">
         <v>200</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>208</v>
       </c>
       <c r="V50" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>408</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>104</v>
       </c>
       <c r="X50" s="15"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA50" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.1346153846153846</v>
       </c>
       <c r="AB50" s="2">
@@ -7777,18 +7907,21 @@
       </c>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="AN50" s="2">
-        <f>ROUND(G50*V50,0)</f>
+        <f t="shared" si="42"/>
         <v>184</v>
       </c>
       <c r="AO50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="AP50" s="2"/>
+      <c r="AP50" s="2">
+        <f t="shared" si="29"/>
+        <v>140.4</v>
+      </c>
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
@@ -7838,18 +7971,18 @@
         <v>262</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-28</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>46.8</v>
       </c>
       <c r="Q51" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>386.4</v>
       </c>
       <c r="R51" s="15">
@@ -7857,20 +7990,20 @@
         <v>300</v>
       </c>
       <c r="S51" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="T51" s="15"/>
       <c r="U51" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>93.6</v>
       </c>
       <c r="V51" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>93.6</v>
       </c>
       <c r="W51" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>46.8</v>
       </c>
       <c r="X51" s="15">
@@ -7878,11 +8011,11 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.153846153846155</v>
       </c>
       <c r="AA51" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4.7435897435897436</v>
       </c>
       <c r="AB51" s="2">
@@ -7917,18 +8050,21 @@
       </c>
       <c r="AL51" s="2"/>
       <c r="AM51" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="AN51" s="2">
-        <f>ROUND(G51*V51,0)</f>
+        <f t="shared" si="42"/>
         <v>42</v>
       </c>
       <c r="AO51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="AP51" s="2"/>
+      <c r="AP51" s="2">
+        <f t="shared" si="29"/>
+        <v>63.179999999999993</v>
+      </c>
       <c r="AQ51" s="2"/>
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
@@ -7978,49 +8114,49 @@
         <v>287.33</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-44.490999999999985</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>48.567799999999998</v>
       </c>
       <c r="Q52" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>341.2534</v>
       </c>
       <c r="R52" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>341.2534</v>
       </c>
       <c r="S52" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>341.2534</v>
       </c>
       <c r="T52" s="15"/>
       <c r="U52" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>97.135599999999997</v>
       </c>
       <c r="V52" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>97.135599999999997</v>
       </c>
       <c r="W52" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>48.567799999999998</v>
       </c>
       <c r="X52" s="15"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AA52" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5.9736697976848854</v>
       </c>
       <c r="AB52" s="2">
@@ -8055,18 +8191,21 @@
       </c>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>341</v>
       </c>
       <c r="AN52" s="2">
-        <f>ROUND(G52*V52,0)</f>
+        <f t="shared" si="42"/>
         <v>97</v>
       </c>
       <c r="AO52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="AP52" s="2"/>
+      <c r="AP52" s="2">
+        <f t="shared" si="29"/>
+        <v>145.70339999999999</v>
+      </c>
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
@@ -8114,14 +8253,14 @@
         <v>56.576999999999998</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-21.052</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>7.1049999999999995</v>
       </c>
       <c r="Q53" s="15">
@@ -8129,28 +8268,28 @@
         <v>56.839999999999996</v>
       </c>
       <c r="R53" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>56.839999999999996</v>
       </c>
       <c r="S53" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.839999999999996</v>
       </c>
       <c r="T53" s="15"/>
       <c r="U53" s="15"/>
       <c r="V53" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AA53" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB53" s="2">
@@ -8185,18 +8324,21 @@
       </c>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="AN53" s="2">
-        <f>ROUND(G53*V53,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP53" s="2"/>
+      <c r="AP53" s="2">
+        <f t="shared" si="29"/>
+        <v>21.314999999999998</v>
+      </c>
       <c r="AQ53" s="2"/>
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
@@ -8246,18 +8388,18 @@
         <v>159</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>31</v>
       </c>
       <c r="Q54" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>134</v>
       </c>
       <c r="R54" s="15">
@@ -8265,7 +8407,7 @@
         <v>300</v>
       </c>
       <c r="S54" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="T54" s="15"/>
@@ -8274,7 +8416,7 @@
         <v>62</v>
       </c>
       <c r="V54" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>62</v>
       </c>
       <c r="W54" s="15">
@@ -8286,11 +8428,11 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.35483870967742</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>8.67741935483871</v>
       </c>
       <c r="AB54" s="2">
@@ -8325,18 +8467,21 @@
       </c>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="AN54" s="2">
-        <f>ROUND(G54*V54,0)</f>
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
       <c r="AO54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AP54" s="2"/>
+      <c r="AP54" s="2">
+        <f t="shared" si="29"/>
+        <v>9.3000000000000007</v>
+      </c>
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
@@ -8386,43 +8531,43 @@
         <v>90.475999999999999</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-9.3810000000000002</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>16.219000000000001</v>
       </c>
       <c r="Q55" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>100.742</v>
       </c>
       <c r="R55" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100.742</v>
       </c>
       <c r="S55" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100.742</v>
       </c>
       <c r="T55" s="15"/>
       <c r="U55" s="15"/>
       <c r="V55" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA55" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.78864294962698</v>
       </c>
       <c r="AB55" s="2">
@@ -8457,18 +8602,21 @@
       </c>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>101</v>
       </c>
       <c r="AN55" s="2">
-        <f>ROUND(G55*V55,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP55" s="2"/>
+      <c r="AP55" s="2">
+        <f t="shared" si="29"/>
+        <v>48.657000000000004</v>
+      </c>
       <c r="AQ55" s="2"/>
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
@@ -8518,46 +8666,46 @@
         <v>121</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>23.4</v>
       </c>
       <c r="Q56" s="15"/>
       <c r="R56" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S56" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T56" s="15"/>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U58" si="40">2*P56</f>
+        <f t="shared" ref="U56:U58" si="47">2*P56</f>
         <v>46.8</v>
       </c>
       <c r="V56" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>46.8</v>
       </c>
       <c r="W56" s="15">
-        <f t="shared" ref="W56:W58" si="41">P56</f>
+        <f t="shared" ref="W56:W58" si="48">P56</f>
         <v>23.4</v>
       </c>
       <c r="X56" s="15"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.589743589743591</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>18.589743589743591</v>
       </c>
       <c r="AB56" s="2">
@@ -8592,18 +8740,21 @@
       </c>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN56" s="2">
-        <f>ROUND(G56*V56,0)</f>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="AO56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AP56" s="2"/>
+      <c r="AP56" s="2">
+        <f t="shared" si="29"/>
+        <v>7.02</v>
+      </c>
       <c r="AQ56" s="2"/>
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
@@ -8653,14 +8804,14 @@
         <v>342</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-21</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>64.2</v>
       </c>
       <c r="Q57" s="15">
@@ -8668,26 +8819,26 @@
         <v>496.6</v>
       </c>
       <c r="R57" s="15">
-        <f t="shared" ref="R57:R58" si="42">X57</f>
+        <f t="shared" ref="R57:R58" si="49">X57</f>
         <v>650</v>
       </c>
       <c r="S57" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="T57" s="15">
         <v>100</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>128.4</v>
       </c>
       <c r="V57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>228.4</v>
       </c>
       <c r="W57" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>64.2</v>
       </c>
       <c r="X57" s="15">
@@ -8695,11 +8846,11 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.389408099688472</v>
       </c>
       <c r="AA57" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.26479750778816197</v>
       </c>
       <c r="AB57" s="2">
@@ -8734,18 +8885,21 @@
       </c>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="AN57" s="2">
-        <f>ROUND(G57*V57,0)</f>
+        <f t="shared" si="42"/>
         <v>91</v>
       </c>
       <c r="AO57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="AP57" s="2"/>
+      <c r="AP57" s="2">
+        <f t="shared" si="29"/>
+        <v>77.040000000000006</v>
+      </c>
       <c r="AQ57" s="2"/>
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
@@ -8795,14 +8949,14 @@
         <v>291</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-19</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>54.4</v>
       </c>
       <c r="Q58" s="15">
@@ -8810,26 +8964,26 @@
         <v>414.59999999999997</v>
       </c>
       <c r="R58" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>550</v>
       </c>
       <c r="S58" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="T58" s="15">
         <v>100</v>
       </c>
       <c r="U58" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>108.8</v>
       </c>
       <c r="V58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>208.8</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>54.4</v>
       </c>
       <c r="X58" s="15">
@@ -8837,11 +8991,11 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.488970588235293</v>
       </c>
       <c r="AA58" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.3786764705882353</v>
       </c>
       <c r="AB58" s="2">
@@ -8876,18 +9030,21 @@
       </c>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="AN58" s="2">
-        <f>ROUND(G58*V58,0)</f>
+        <f t="shared" si="42"/>
         <v>84</v>
       </c>
       <c r="AO58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="AP58" s="2"/>
+      <c r="AP58" s="2">
+        <f t="shared" si="29"/>
+        <v>65.28</v>
+      </c>
       <c r="AQ58" s="2"/>
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
@@ -8937,43 +9094,43 @@
         <v>72.350999999999999</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.78300000000000125</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>14.313599999999999</v>
       </c>
       <c r="Q59" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>76.054799999999986</v>
       </c>
       <c r="R59" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76.054799999999986</v>
       </c>
       <c r="S59" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76.054799999999986</v>
       </c>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
       <c r="V59" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W59" s="15"/>
       <c r="X59" s="15"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AA59" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.6865358819584184</v>
       </c>
       <c r="AB59" s="2">
@@ -9008,18 +9165,21 @@
       </c>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="AN59" s="2">
-        <f>ROUND(G59*V59,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP59" s="2"/>
+      <c r="AP59" s="2">
+        <f t="shared" si="29"/>
+        <v>42.940799999999996</v>
+      </c>
       <c r="AQ59" s="2"/>
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
@@ -9069,14 +9229,14 @@
         <v>128</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-8</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>24</v>
       </c>
       <c r="Q60" s="15">
@@ -9084,31 +9244,31 @@
         <v>197</v>
       </c>
       <c r="R60" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
       <c r="S60" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="T60" s="15"/>
       <c r="U60" s="24">
-        <f t="shared" ref="U60:U61" si="43">2*P60</f>
+        <f t="shared" ref="U60:U61" si="50">2*P60</f>
         <v>48</v>
       </c>
       <c r="V60" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>48</v>
       </c>
       <c r="W60" s="24"/>
       <c r="X60" s="15"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AA60" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.7916666666666665</v>
       </c>
       <c r="AB60" s="2">
@@ -9145,18 +9305,21 @@
         <v>167</v>
       </c>
       <c r="AM60" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="AN60" s="2">
-        <f>ROUND(G60*V60,0)</f>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="AO60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP60" s="2"/>
+      <c r="AP60" s="2">
+        <f t="shared" si="29"/>
+        <v>28.800000000000004</v>
+      </c>
       <c r="AQ60" s="2"/>
       <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
@@ -9206,35 +9369,35 @@
         <v>205</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-21</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>36.799999999999997</v>
       </c>
       <c r="Q61" s="15">
-        <f t="shared" ref="Q61:Q62" si="44">9*P61-F61</f>
+        <f t="shared" ref="Q61:Q62" si="51">9*P61-F61</f>
         <v>281.2</v>
       </c>
       <c r="R61" s="15">
-        <f t="shared" ref="R61:R64" si="45">X61</f>
+        <f t="shared" ref="R61:R64" si="52">X61</f>
         <v>350</v>
       </c>
       <c r="S61" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="T61" s="15"/>
       <c r="U61" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>73.599999999999994</v>
       </c>
       <c r="V61" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>73.599999999999994</v>
       </c>
       <c r="W61" s="15">
@@ -9246,11 +9409,11 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.869565217391306</v>
       </c>
       <c r="AA61" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.3586956521739131</v>
       </c>
       <c r="AB61" s="2">
@@ -9285,18 +9448,21 @@
       </c>
       <c r="AL61" s="2"/>
       <c r="AM61" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="AN61" s="2">
-        <f>ROUND(G61*V61,0)</f>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="AO61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="AP61" s="2"/>
+      <c r="AP61" s="2">
+        <f t="shared" si="29"/>
+        <v>36.432000000000002</v>
+      </c>
       <c r="AQ61" s="2"/>
       <c r="AR61" s="2"/>
       <c r="AS61" s="2"/>
@@ -9346,32 +9512,32 @@
         <v>104</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-7</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>19.399999999999999</v>
       </c>
       <c r="Q62" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>151.6</v>
       </c>
       <c r="R62" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>200</v>
       </c>
       <c r="S62" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="T62" s="15"/>
       <c r="U62" s="15"/>
       <c r="V62" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W62" s="15"/>
@@ -9380,11 +9546,11 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.494845360824742</v>
       </c>
       <c r="AA62" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.1855670103092784</v>
       </c>
       <c r="AB62" s="2">
@@ -9419,18 +9585,21 @@
       </c>
       <c r="AL62" s="2"/>
       <c r="AM62" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="AN62" s="2">
-        <f>ROUND(G62*V62,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO62" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AP62" s="2"/>
+      <c r="AP62" s="2">
+        <f t="shared" si="29"/>
+        <v>20.369999999999997</v>
+      </c>
       <c r="AQ62" s="2"/>
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
@@ -9480,14 +9649,14 @@
         <v>370</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-32</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>67.599999999999994</v>
       </c>
       <c r="Q63" s="15">
@@ -9495,26 +9664,26 @@
         <v>563</v>
       </c>
       <c r="R63" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>600</v>
       </c>
       <c r="S63" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="T63" s="15">
         <v>100</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" ref="U63" si="46">2*P63</f>
+        <f t="shared" ref="U63" si="53">2*P63</f>
         <v>135.19999999999999</v>
       </c>
       <c r="V63" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>235.2</v>
       </c>
       <c r="W63" s="15">
-        <f t="shared" ref="W63:W64" si="47">P63</f>
+        <f t="shared" ref="W63:W64" si="54">P63</f>
         <v>67.599999999999994</v>
       </c>
       <c r="X63" s="15">
@@ -9522,11 +9691,11 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.547337278106511</v>
       </c>
       <c r="AA63" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.6715976331360949</v>
       </c>
       <c r="AB63" s="2">
@@ -9561,18 +9730,21 @@
       </c>
       <c r="AL63" s="2"/>
       <c r="AM63" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="AN63" s="2">
-        <f>ROUND(G63*V63,0)</f>
+        <f t="shared" si="42"/>
         <v>82</v>
       </c>
       <c r="AO63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="AP63" s="2"/>
+      <c r="AP63" s="2">
+        <f t="shared" si="29"/>
+        <v>70.97999999999999</v>
+      </c>
       <c r="AQ63" s="2"/>
       <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
@@ -9624,14 +9796,14 @@
         <v>500</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>231</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>146.19999999999999</v>
       </c>
       <c r="Q64" s="15">
@@ -9639,11 +9811,11 @@
         <v>1210.8</v>
       </c>
       <c r="R64" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1400</v>
       </c>
       <c r="S64" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
       <c r="T64" s="15">
@@ -9654,11 +9826,11 @@
         <v>438.59999999999997</v>
       </c>
       <c r="V64" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>738.59999999999991</v>
       </c>
       <c r="W64" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>146.19999999999999</v>
       </c>
       <c r="X64" s="15">
@@ -9666,11 +9838,11 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.294117647058824</v>
       </c>
       <c r="AA64" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.71819425444596452</v>
       </c>
       <c r="AB64" s="2">
@@ -9705,18 +9877,21 @@
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>385</v>
       </c>
       <c r="AN64" s="2">
-        <f>ROUND(G64*V64,0)</f>
+        <f t="shared" si="42"/>
         <v>259</v>
       </c>
       <c r="AO64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="AP64" s="2"/>
+      <c r="AP64" s="2">
+        <f t="shared" si="29"/>
+        <v>153.51</v>
+      </c>
       <c r="AQ64" s="2"/>
       <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
@@ -9733,7 +9908,7 @@
       <c r="BD64" s="2"/>
       <c r="BE64" s="2"/>
     </row>
-    <row r="65" spans="1:57">
+    <row r="65" spans="1:57" hidden="1">
       <c r="A65" s="9" t="s">
         <v>110</v>
       </c>
@@ -9760,23 +9935,23 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q65" s="17"/>
       <c r="R65" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S65" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T65" s="15"/>
@@ -9786,11 +9961,11 @@
       <c r="X65" s="17"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA65" s="9" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65" s="9">
@@ -9825,15 +10000,15 @@
       </c>
       <c r="AL65" s="9"/>
       <c r="AM65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN65" s="2">
-        <f>ROUND(G65*V65,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP65" s="2"/>
@@ -9853,7 +10028,7 @@
       <c r="BD65" s="2"/>
       <c r="BE65" s="2"/>
     </row>
-    <row r="66" spans="1:57">
+    <row r="66" spans="1:57" hidden="1">
       <c r="A66" s="9" t="s">
         <v>111</v>
       </c>
@@ -9888,23 +10063,23 @@
         <v>667.03300000000002</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-268.22000000000003</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>79.762599999999992</v>
       </c>
       <c r="Q66" s="17"/>
       <c r="R66" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S66" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T66" s="15"/>
@@ -9914,11 +10089,11 @@
       <c r="X66" s="17"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8159011867717458</v>
       </c>
       <c r="AA66" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.8159011867717458</v>
       </c>
       <c r="AB66" s="9">
@@ -9955,15 +10130,15 @@
         <v>112</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN66" s="2">
-        <f>ROUND(G66*V66,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP66" s="2"/>
@@ -10016,14 +10191,14 @@
         <v>349.45</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-16.426999999999964</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>66.604600000000005</v>
       </c>
       <c r="Q67" s="15">
@@ -10031,11 +10206,11 @@
         <v>549.89720000000011</v>
       </c>
       <c r="R67" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>549.89720000000011</v>
       </c>
       <c r="S67" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>449.89720000000011</v>
       </c>
       <c r="T67" s="15">
@@ -10056,11 +10231,11 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AA67" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.7438555294979623</v>
       </c>
       <c r="AB67" s="2">
@@ -10095,18 +10270,21 @@
       </c>
       <c r="AL67" s="2"/>
       <c r="AM67" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>450</v>
       </c>
       <c r="AN67" s="2">
-        <f>ROUND(G67*V67,0)</f>
+        <f t="shared" si="42"/>
         <v>233</v>
       </c>
       <c r="AO67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="AP67" s="2"/>
+      <c r="AP67" s="2">
+        <f>P67*G67*3</f>
+        <v>199.81380000000001</v>
+      </c>
       <c r="AQ67" s="2"/>
       <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
@@ -10123,7 +10301,7 @@
       <c r="BD67" s="2"/>
       <c r="BE67" s="2"/>
     </row>
-    <row r="68" spans="1:57">
+    <row r="68" spans="1:57" hidden="1">
       <c r="A68" s="9" t="s">
         <v>114</v>
       </c>
@@ -10152,23 +10330,23 @@
         <v>5</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-5</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q68" s="17"/>
       <c r="R68" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S68" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T68" s="15"/>
@@ -10178,11 +10356,11 @@
       <c r="X68" s="17"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA68" s="9" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB68" s="9">
@@ -10219,15 +10397,15 @@
         <v>116</v>
       </c>
       <c r="AM68" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN68" s="2">
-        <f>ROUND(G68*V68,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP68" s="2"/>
@@ -10280,14 +10458,14 @@
         <v>198.07</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-17.591999999999985</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>36.095600000000005</v>
       </c>
       <c r="Q69" s="15">
@@ -10299,20 +10477,20 @@
         <v>250</v>
       </c>
       <c r="S69" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="T69" s="15"/>
       <c r="U69" s="15">
-        <f t="shared" ref="U69:U70" si="48">2*P69</f>
+        <f t="shared" ref="U69:U70" si="55">2*P69</f>
         <v>72.191200000000009</v>
       </c>
       <c r="V69" s="15">
-        <f t="shared" ref="V69:V79" si="49">T69+U69</f>
+        <f t="shared" ref="V69:V79" si="56">T69+U69</f>
         <v>72.191200000000009</v>
       </c>
       <c r="W69" s="15">
-        <f t="shared" ref="W69:W70" si="50">P69</f>
+        <f t="shared" ref="W69:W70" si="57">P69</f>
         <v>36.095600000000005</v>
       </c>
       <c r="X69" s="15">
@@ -10320,11 +10498,11 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.124707720608603</v>
       </c>
       <c r="AA69" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4.1986557918416647</v>
       </c>
       <c r="AB69" s="2">
@@ -10359,18 +10537,21 @@
       </c>
       <c r="AL69" s="2"/>
       <c r="AM69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="AN69" s="2">
-        <f>ROUND(G69*V69,0)</f>
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="AO69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="AP69" s="2"/>
+      <c r="AP69" s="2">
+        <f t="shared" ref="AP69:AP79" si="58">P69*G69*3</f>
+        <v>108.28680000000001</v>
+      </c>
       <c r="AQ69" s="2"/>
       <c r="AR69" s="2"/>
       <c r="AS69" s="2"/>
@@ -10420,14 +10601,14 @@
         <v>965.49099999999999</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ref="L70:L101" si="51">E70-K70</f>
+        <f t="shared" ref="L70:L101" si="59">E70-K70</f>
         <v>-324.11500000000001</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2">
-        <f t="shared" ref="P70:P101" si="52">E70/5</f>
+        <f t="shared" ref="P70:P101" si="60">E70/5</f>
         <v>128.27519999999998</v>
       </c>
       <c r="Q70" s="15">
@@ -10435,36 +10616,36 @@
         <v>993.44219999999973</v>
       </c>
       <c r="R70" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>993.44219999999973</v>
       </c>
       <c r="S70" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>793.44219999999973</v>
       </c>
       <c r="T70" s="15">
         <v>200</v>
       </c>
       <c r="U70" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>256.55039999999997</v>
       </c>
       <c r="V70" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>456.55039999999997</v>
       </c>
       <c r="W70" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>128.27519999999998</v>
       </c>
       <c r="X70" s="15"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.999999999999998</v>
       </c>
       <c r="AA70" s="2">
-        <f t="shared" ref="AA70:AA101" si="53">F70/P70</f>
+        <f t="shared" ref="AA70:AA101" si="61">F70/P70</f>
         <v>3.2553837374644519</v>
       </c>
       <c r="AB70" s="2">
@@ -10499,18 +10680,21 @@
       </c>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>793</v>
       </c>
       <c r="AN70" s="2">
-        <f>ROUND(G70*V70,0)</f>
+        <f t="shared" ref="AN70:AN101" si="62">ROUND(G70*V70,0)</f>
         <v>457</v>
       </c>
       <c r="AO70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
-      <c r="AP70" s="2"/>
+      <c r="AP70" s="2">
+        <f t="shared" si="58"/>
+        <v>384.82559999999995</v>
+      </c>
       <c r="AQ70" s="2"/>
       <c r="AR70" s="2"/>
       <c r="AS70" s="2"/>
@@ -10560,14 +10744,14 @@
         <v>79</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-19</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="Q71" s="15">
@@ -10579,13 +10763,13 @@
         <v>140</v>
       </c>
       <c r="S71" s="15">
-        <f t="shared" ref="S71:S101" si="54">R71-T71</f>
+        <f t="shared" ref="S71:S101" si="63">R71-T71</f>
         <v>140</v>
       </c>
       <c r="T71" s="15"/>
       <c r="U71" s="15"/>
       <c r="V71" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W71" s="15"/>
@@ -10594,11 +10778,11 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2">
-        <f t="shared" ref="Z71:Z101" si="55">(F71+R71+U71)/P71</f>
+        <f t="shared" ref="Z71:Z101" si="64">(F71+R71+U71)/P71</f>
         <v>11.916666666666666</v>
       </c>
       <c r="AA71" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.25</v>
       </c>
       <c r="AB71" s="2">
@@ -10635,18 +10819,21 @@
         <v>84</v>
       </c>
       <c r="AM71" s="2">
-        <f t="shared" ref="AM71:AM101" si="56">ROUND(G71*S71,0)</f>
+        <f t="shared" ref="AM71:AM101" si="65">ROUND(G71*S71,0)</f>
         <v>70</v>
       </c>
       <c r="AN71" s="2">
-        <f>ROUND(G71*V71,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO71" s="2">
-        <f t="shared" ref="AO71:AO101" si="57">ROUND(W71*G71,0)</f>
+        <f t="shared" ref="AO71:AO101" si="66">ROUND(W71*G71,0)</f>
         <v>0</v>
       </c>
-      <c r="AP71" s="2"/>
+      <c r="AP71" s="2">
+        <f t="shared" si="58"/>
+        <v>18</v>
+      </c>
       <c r="AQ71" s="2"/>
       <c r="AR71" s="2"/>
       <c r="AS71" s="2"/>
@@ -10696,40 +10883,40 @@
         <v>123.29900000000001</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-27.774000000000001</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>19.105</v>
       </c>
       <c r="Q72" s="15"/>
       <c r="R72" s="15">
-        <f t="shared" ref="R72:R101" si="58">Q72</f>
+        <f t="shared" ref="R72:R101" si="67">Q72</f>
         <v>0</v>
       </c>
       <c r="S72" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T72" s="15"/>
       <c r="U72" s="15"/>
       <c r="V72" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>14.369746139753991</v>
       </c>
       <c r="AA72" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>14.369746139753991</v>
       </c>
       <c r="AB72" s="2">
@@ -10764,18 +10951,21 @@
       </c>
       <c r="AL72" s="2"/>
       <c r="AM72" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN72" s="2">
-        <f>ROUND(G72*V72,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO72" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP72" s="2"/>
+      <c r="AP72" s="2">
+        <f t="shared" si="58"/>
+        <v>57.314999999999998</v>
+      </c>
       <c r="AQ72" s="2"/>
       <c r="AR72" s="2"/>
       <c r="AS72" s="2"/>
@@ -10825,14 +11015,14 @@
         <v>158.01900000000001</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-12.317000000000007</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>29.1404</v>
       </c>
       <c r="Q73" s="15">
@@ -10840,34 +11030,34 @@
         <v>223.31540000000001</v>
       </c>
       <c r="R73" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>223.31540000000001</v>
       </c>
       <c r="S73" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>223.31540000000001</v>
       </c>
       <c r="T73" s="15"/>
       <c r="U73" s="15">
-        <f t="shared" ref="U73:U76" si="59">2*P73</f>
+        <f t="shared" ref="U73:U76" si="68">2*P73</f>
         <v>58.280799999999999</v>
       </c>
       <c r="V73" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>58.280799999999999</v>
       </c>
       <c r="W73" s="15">
-        <f t="shared" ref="W73:W77" si="60">P73</f>
+        <f t="shared" ref="W73:W77" si="69">P73</f>
         <v>29.1404</v>
       </c>
       <c r="X73" s="15"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA73" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>3.3365705343783887</v>
       </c>
       <c r="AB73" s="2">
@@ -10902,18 +11092,21 @@
       </c>
       <c r="AL73" s="2"/>
       <c r="AM73" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>223</v>
       </c>
       <c r="AN73" s="2">
-        <f>ROUND(G73*V73,0)</f>
+        <f t="shared" si="62"/>
         <v>58</v>
       </c>
       <c r="AO73" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>29</v>
       </c>
-      <c r="AP73" s="2"/>
+      <c r="AP73" s="2">
+        <f t="shared" si="58"/>
+        <v>87.421199999999999</v>
+      </c>
       <c r="AQ73" s="2"/>
       <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
@@ -10963,14 +11156,14 @@
         <v>329</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-42</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>57.4</v>
       </c>
       <c r="Q74" s="15">
@@ -10978,26 +11171,26 @@
         <v>454.6</v>
       </c>
       <c r="R74" s="15">
-        <f t="shared" ref="R74:R75" si="61">X74</f>
+        <f t="shared" ref="R74:R75" si="70">X74</f>
         <v>550</v>
       </c>
       <c r="S74" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>450</v>
       </c>
       <c r="T74" s="15">
         <v>100</v>
       </c>
       <c r="U74" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>114.8</v>
       </c>
       <c r="V74" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>214.8</v>
       </c>
       <c r="W74" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>57.4</v>
       </c>
       <c r="X74" s="15">
@@ -11005,11 +11198,11 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>12.662020905923345</v>
       </c>
       <c r="AA74" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.0801393728222997</v>
       </c>
       <c r="AB74" s="2">
@@ -11044,18 +11237,21 @@
       </c>
       <c r="AL74" s="2"/>
       <c r="AM74" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>225</v>
       </c>
       <c r="AN74" s="2">
-        <f>ROUND(G74*V74,0)</f>
+        <f t="shared" si="62"/>
         <v>107</v>
       </c>
       <c r="AO74" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>29</v>
       </c>
-      <c r="AP74" s="2"/>
+      <c r="AP74" s="2">
+        <f t="shared" si="58"/>
+        <v>86.1</v>
+      </c>
       <c r="AQ74" s="2"/>
       <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
@@ -11105,14 +11301,14 @@
         <v>176</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-29</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>29.4</v>
       </c>
       <c r="Q75" s="15">
@@ -11120,24 +11316,24 @@
         <v>244</v>
       </c>
       <c r="R75" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>300</v>
       </c>
       <c r="S75" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>300</v>
       </c>
       <c r="T75" s="15"/>
       <c r="U75" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>58.8</v>
       </c>
       <c r="V75" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>58.8</v>
       </c>
       <c r="W75" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>29.4</v>
       </c>
       <c r="X75" s="15">
@@ -11145,11 +11341,11 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13.904761904761905</v>
       </c>
       <c r="AA75" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.7006802721088436</v>
       </c>
       <c r="AB75" s="2">
@@ -11184,18 +11380,21 @@
       </c>
       <c r="AL75" s="2"/>
       <c r="AM75" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>150</v>
       </c>
       <c r="AN75" s="2">
-        <f>ROUND(G75*V75,0)</f>
+        <f t="shared" si="62"/>
         <v>29</v>
       </c>
       <c r="AO75" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>15</v>
       </c>
-      <c r="AP75" s="2"/>
+      <c r="AP75" s="2">
+        <f t="shared" si="58"/>
+        <v>44.099999999999994</v>
+      </c>
       <c r="AQ75" s="2"/>
       <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
@@ -11245,14 +11444,14 @@
         <v>194</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-16</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>35.6</v>
       </c>
       <c r="Q76" s="15">
@@ -11260,34 +11459,34 @@
         <v>285.60000000000002</v>
       </c>
       <c r="R76" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>285.60000000000002</v>
       </c>
       <c r="S76" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>285.60000000000002</v>
       </c>
       <c r="T76" s="15"/>
       <c r="U76" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>71.2</v>
       </c>
       <c r="V76" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>71.2</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>35.6</v>
       </c>
       <c r="X76" s="15"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA76" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.9775280898876404</v>
       </c>
       <c r="AB76" s="2">
@@ -11322,18 +11521,21 @@
       </c>
       <c r="AL76" s="2"/>
       <c r="AM76" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>114</v>
       </c>
       <c r="AN76" s="2">
-        <f>ROUND(G76*V76,0)</f>
+        <f t="shared" si="62"/>
         <v>28</v>
       </c>
       <c r="AO76" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>14</v>
       </c>
-      <c r="AP76" s="2"/>
+      <c r="AP76" s="2">
+        <f t="shared" si="58"/>
+        <v>42.720000000000006</v>
+      </c>
       <c r="AQ76" s="2"/>
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
@@ -11383,26 +11585,26 @@
         <v>1101.52</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-448.91200000000003</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>130.52159999999998</v>
       </c>
       <c r="Q77" s="15">
-        <f t="shared" ref="Q77" si="62">13*P77-F77</f>
+        <f t="shared" ref="Q77" si="71">13*P77-F77</f>
         <v>1061.4317999999998</v>
       </c>
       <c r="R77" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1061.4317999999998</v>
       </c>
       <c r="S77" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>761.43179999999984</v>
       </c>
       <c r="T77" s="15">
@@ -11413,21 +11615,21 @@
         <v>261.04319999999996</v>
       </c>
       <c r="V77" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>561.04319999999996</v>
       </c>
       <c r="W77" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>130.52159999999998</v>
       </c>
       <c r="X77" s="15"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>15.000000000000004</v>
       </c>
       <c r="AA77" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>4.8677690129449847</v>
       </c>
       <c r="AB77" s="2">
@@ -11462,18 +11664,21 @@
       </c>
       <c r="AL77" s="2"/>
       <c r="AM77" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>761</v>
       </c>
       <c r="AN77" s="2">
-        <f>ROUND(G77*V77,0)</f>
+        <f t="shared" si="62"/>
         <v>561</v>
       </c>
       <c r="AO77" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>131</v>
       </c>
-      <c r="AP77" s="2"/>
+      <c r="AP77" s="2">
+        <f t="shared" si="58"/>
+        <v>391.56479999999993</v>
+      </c>
       <c r="AQ77" s="2"/>
       <c r="AR77" s="2"/>
       <c r="AS77" s="2"/>
@@ -11523,29 +11728,29 @@
         <v>10.9</v>
       </c>
       <c r="L78" s="27">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2.4260000000000002</v>
       </c>
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
       <c r="O78" s="27"/>
       <c r="P78" s="27">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1.6948000000000001</v>
       </c>
       <c r="Q78" s="29"/>
       <c r="R78" s="29">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S78" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T78" s="29"/>
       <c r="U78" s="29"/>
       <c r="V78" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W78" s="15"/>
@@ -11554,11 +11759,11 @@
         <v>126</v>
       </c>
       <c r="Z78" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13.749114939815907</v>
       </c>
       <c r="AA78" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>13.749114939815907</v>
       </c>
       <c r="AB78" s="2">
@@ -11595,18 +11800,21 @@
         <v>60</v>
       </c>
       <c r="AM78" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN78" s="2">
-        <f>ROUND(G78*V78,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO78" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP78" s="2"/>
+      <c r="AP78" s="2">
+        <f t="shared" si="58"/>
+        <v>5.0844000000000005</v>
+      </c>
       <c r="AQ78" s="2"/>
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
@@ -11656,14 +11864,14 @@
         <v>140</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-20</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="Q79" s="15">
@@ -11671,11 +11879,11 @@
         <v>200</v>
       </c>
       <c r="R79" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>200</v>
       </c>
       <c r="S79" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>200</v>
       </c>
       <c r="T79" s="15"/>
@@ -11684,7 +11892,7 @@
         <v>48</v>
       </c>
       <c r="V79" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>48</v>
       </c>
       <c r="W79" s="15">
@@ -11694,11 +11902,11 @@
       <c r="X79" s="15"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA79" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AB79" s="2">
@@ -11733,18 +11941,21 @@
       </c>
       <c r="AL79" s="2"/>
       <c r="AM79" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
       <c r="AN79" s="2">
-        <f>ROUND(G79*V79,0)</f>
+        <f t="shared" si="62"/>
         <v>19</v>
       </c>
       <c r="AO79" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>10</v>
       </c>
-      <c r="AP79" s="2"/>
+      <c r="AP79" s="2">
+        <f t="shared" si="58"/>
+        <v>28.800000000000004</v>
+      </c>
       <c r="AQ79" s="2"/>
       <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
@@ -11761,7 +11972,7 @@
       <c r="BD79" s="2"/>
       <c r="BE79" s="2"/>
     </row>
-    <row r="80" spans="1:57">
+    <row r="80" spans="1:57" hidden="1">
       <c r="A80" s="9" t="s">
         <v>128</v>
       </c>
@@ -11788,23 +11999,23 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q80" s="17"/>
       <c r="R80" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T80" s="15"/>
@@ -11814,11 +12025,11 @@
       <c r="X80" s="17"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="2" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA80" s="9" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB80" s="9">
@@ -11853,15 +12064,15 @@
       </c>
       <c r="AL80" s="9"/>
       <c r="AM80" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN80" s="2">
-        <f>ROUND(G80*V80,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO80" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP80" s="2"/>
@@ -11910,43 +12121,43 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>49.725000000000001</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>9.9450000000000003</v>
       </c>
       <c r="Q81" s="15">
-        <f t="shared" ref="Q81:Q92" si="63">13*P81-F81</f>
+        <f t="shared" ref="Q81:Q92" si="72">13*P81-F81</f>
         <v>49.86699999999999</v>
       </c>
       <c r="R81" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>49.86699999999999</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>49.86699999999999</v>
       </c>
       <c r="T81" s="15"/>
       <c r="U81" s="15"/>
       <c r="V81" s="15">
-        <f t="shared" ref="V81:V96" si="64">T81+U81</f>
+        <f t="shared" ref="V81:V96" si="73">T81+U81</f>
         <v>0</v>
       </c>
       <c r="W81" s="15"/>
       <c r="X81" s="15"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA81" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>7.9857214680744093</v>
       </c>
       <c r="AB81" s="2">
@@ -11983,18 +12194,21 @@
         <v>60</v>
       </c>
       <c r="AM81" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>50</v>
       </c>
       <c r="AN81" s="2">
-        <f>ROUND(G81*V81,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO81" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP81" s="2"/>
+      <c r="AP81" s="2">
+        <f t="shared" ref="AP81:AP96" si="74">P81*G81*3</f>
+        <v>29.835000000000001</v>
+      </c>
       <c r="AQ81" s="2"/>
       <c r="AR81" s="2"/>
       <c r="AS81" s="2"/>
@@ -12044,14 +12258,14 @@
         <v>271</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-71</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>40</v>
       </c>
       <c r="Q82" s="15">
@@ -12059,24 +12273,24 @@
         <v>318</v>
       </c>
       <c r="R82" s="15">
-        <f t="shared" ref="R82:R84" si="65">X82</f>
+        <f t="shared" ref="R82:R84" si="75">X82</f>
         <v>400</v>
       </c>
       <c r="S82" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>400</v>
       </c>
       <c r="T82" s="15"/>
       <c r="U82" s="15">
-        <f t="shared" ref="U82:U84" si="66">2*P82</f>
+        <f t="shared" ref="U82:U84" si="76">2*P82</f>
         <v>80</v>
       </c>
       <c r="V82" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>80</v>
       </c>
       <c r="W82" s="15">
-        <f t="shared" ref="W82:W84" si="67">P82</f>
+        <f t="shared" ref="W82:W84" si="77">P82</f>
         <v>40</v>
       </c>
       <c r="X82" s="15">
@@ -12084,11 +12298,11 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>12.05</v>
       </c>
       <c r="AA82" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.05</v>
       </c>
       <c r="AB82" s="2">
@@ -12123,18 +12337,21 @@
       </c>
       <c r="AL82" s="2"/>
       <c r="AM82" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>120</v>
       </c>
       <c r="AN82" s="2">
-        <f>ROUND(G82*V82,0)</f>
+        <f t="shared" si="62"/>
         <v>24</v>
       </c>
       <c r="AO82" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>12</v>
       </c>
-      <c r="AP82" s="2"/>
+      <c r="AP82" s="2">
+        <f t="shared" si="74"/>
+        <v>36</v>
+      </c>
       <c r="AQ82" s="2"/>
       <c r="AR82" s="2"/>
       <c r="AS82" s="2"/>
@@ -12184,14 +12401,14 @@
         <v>207</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-23</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>36.799999999999997</v>
       </c>
       <c r="Q83" s="15">
@@ -12199,24 +12416,24 @@
         <v>310.2</v>
       </c>
       <c r="R83" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>400</v>
       </c>
       <c r="S83" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>400</v>
       </c>
       <c r="T83" s="15"/>
       <c r="U83" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>73.599999999999994</v>
       </c>
       <c r="V83" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>73.599999999999994</v>
       </c>
       <c r="W83" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>36.799999999999997</v>
       </c>
       <c r="X83" s="15">
@@ -12224,11 +12441,11 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13.440217391304349</v>
       </c>
       <c r="AA83" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.57065217391304357</v>
       </c>
       <c r="AB83" s="2">
@@ -12263,18 +12480,21 @@
       </c>
       <c r="AL83" s="2"/>
       <c r="AM83" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>120</v>
       </c>
       <c r="AN83" s="2">
-        <f>ROUND(G83*V83,0)</f>
+        <f t="shared" si="62"/>
         <v>22</v>
       </c>
       <c r="AO83" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>11</v>
       </c>
-      <c r="AP83" s="2"/>
+      <c r="AP83" s="2">
+        <f t="shared" si="74"/>
+        <v>33.119999999999997</v>
+      </c>
       <c r="AQ83" s="2"/>
       <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
@@ -12324,14 +12544,14 @@
         <v>146</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-8</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>27.6</v>
       </c>
       <c r="Q84" s="15">
@@ -12339,24 +12559,24 @@
         <v>228</v>
       </c>
       <c r="R84" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>300</v>
       </c>
       <c r="S84" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>300</v>
       </c>
       <c r="T84" s="15"/>
       <c r="U84" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>55.2</v>
       </c>
       <c r="V84" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>55.2</v>
       </c>
       <c r="W84" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>27.6</v>
       </c>
       <c r="X84" s="15">
@@ -12364,11 +12584,11 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>14.608695652173912</v>
       </c>
       <c r="AA84" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.7391304347826086</v>
       </c>
       <c r="AB84" s="2">
@@ -12403,18 +12623,21 @@
       </c>
       <c r="AL84" s="2"/>
       <c r="AM84" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>90</v>
       </c>
       <c r="AN84" s="2">
-        <f>ROUND(G84*V84,0)</f>
+        <f t="shared" si="62"/>
         <v>17</v>
       </c>
       <c r="AO84" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>8</v>
       </c>
-      <c r="AP84" s="2"/>
+      <c r="AP84" s="2">
+        <f t="shared" si="74"/>
+        <v>24.839999999999996</v>
+      </c>
       <c r="AQ84" s="2"/>
       <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
@@ -12464,43 +12687,43 @@
         <v>97</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-12</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>17</v>
       </c>
       <c r="Q85" s="15">
+        <f t="shared" si="72"/>
+        <v>139</v>
+      </c>
+      <c r="R85" s="15">
+        <f t="shared" si="67"/>
+        <v>139</v>
+      </c>
+      <c r="S85" s="15">
         <f t="shared" si="63"/>
-        <v>139</v>
-      </c>
-      <c r="R85" s="15">
-        <f t="shared" si="58"/>
-        <v>139</v>
-      </c>
-      <c r="S85" s="15">
-        <f t="shared" si="54"/>
         <v>139</v>
       </c>
       <c r="T85" s="15"/>
       <c r="U85" s="15"/>
       <c r="V85" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA85" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>4.8235294117647056</v>
       </c>
       <c r="AB85" s="2">
@@ -12535,18 +12758,21 @@
       </c>
       <c r="AL85" s="2"/>
       <c r="AM85" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>17</v>
       </c>
       <c r="AN85" s="2">
-        <f>ROUND(G85*V85,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO85" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP85" s="2"/>
+      <c r="AP85" s="2">
+        <f t="shared" si="74"/>
+        <v>6.12</v>
+      </c>
       <c r="AQ85" s="2"/>
       <c r="AR85" s="2"/>
       <c r="AS85" s="2"/>
@@ -12596,32 +12822,32 @@
         <v>76</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-3</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>14.6</v>
       </c>
       <c r="Q86" s="15">
+        <f t="shared" si="72"/>
+        <v>101.79999999999998</v>
+      </c>
+      <c r="R86" s="15">
+        <f t="shared" ref="R86:R87" si="78">X86</f>
+        <v>150</v>
+      </c>
+      <c r="S86" s="15">
         <f t="shared" si="63"/>
-        <v>101.79999999999998</v>
-      </c>
-      <c r="R86" s="15">
-        <f t="shared" ref="R86:R87" si="68">X86</f>
-        <v>150</v>
-      </c>
-      <c r="S86" s="15">
-        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="T86" s="15"/>
       <c r="U86" s="15"/>
       <c r="V86" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W86" s="15"/>
@@ -12630,11 +12856,11 @@
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>16.301369863013701</v>
       </c>
       <c r="AA86" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>6.0273972602739727</v>
       </c>
       <c r="AB86" s="2">
@@ -12671,18 +12897,21 @@
         <v>134</v>
       </c>
       <c r="AM86" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>11</v>
       </c>
       <c r="AN86" s="2">
-        <f>ROUND(G86*V86,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO86" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP86" s="2"/>
+      <c r="AP86" s="2">
+        <f t="shared" si="74"/>
+        <v>3.0659999999999998</v>
+      </c>
       <c r="AQ86" s="2"/>
       <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
@@ -12732,32 +12961,32 @@
         <v>79</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>15.4</v>
       </c>
       <c r="Q87" s="15">
+        <f t="shared" si="72"/>
+        <v>116.20000000000002</v>
+      </c>
+      <c r="R87" s="15">
+        <f t="shared" si="78"/>
+        <v>150</v>
+      </c>
+      <c r="S87" s="15">
         <f t="shared" si="63"/>
-        <v>116.20000000000002</v>
-      </c>
-      <c r="R87" s="15">
-        <f t="shared" si="68"/>
-        <v>150</v>
-      </c>
-      <c r="S87" s="15">
-        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="T87" s="15"/>
       <c r="U87" s="15"/>
       <c r="V87" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W87" s="15"/>
@@ -12766,11 +12995,11 @@
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>15.194805194805195</v>
       </c>
       <c r="AA87" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="AB87" s="2">
@@ -12807,18 +13036,21 @@
         <v>136</v>
       </c>
       <c r="AM87" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>18</v>
       </c>
       <c r="AN87" s="2">
-        <f>ROUND(G87*V87,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO87" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP87" s="2"/>
+      <c r="AP87" s="2">
+        <f t="shared" si="74"/>
+        <v>5.5439999999999996</v>
+      </c>
       <c r="AQ87" s="2"/>
       <c r="AR87" s="2"/>
       <c r="AS87" s="2"/>
@@ -12868,40 +13100,40 @@
         <v>8.27</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-6.4999999999999503E-2</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1.641</v>
       </c>
       <c r="Q88" s="15"/>
       <c r="R88" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S88" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T88" s="15"/>
       <c r="U88" s="15"/>
       <c r="V88" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W88" s="15"/>
       <c r="X88" s="15"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>19.51797684338818</v>
       </c>
       <c r="AA88" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>19.51797684338818</v>
       </c>
       <c r="AB88" s="2">
@@ -12938,18 +13170,21 @@
         <v>138</v>
       </c>
       <c r="AM88" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN88" s="2">
-        <f>ROUND(G88*V88,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO88" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP88" s="2"/>
+      <c r="AP88" s="2">
+        <f t="shared" si="74"/>
+        <v>4.923</v>
+      </c>
       <c r="AQ88" s="2"/>
       <c r="AR88" s="2"/>
       <c r="AS88" s="2"/>
@@ -12999,14 +13234,14 @@
         <v>123</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-3</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="Q89" s="15">
@@ -13014,24 +13249,24 @@
         <v>188</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" ref="R89:R91" si="69">X89</f>
+        <f t="shared" ref="R89:R91" si="79">X89</f>
         <v>300</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>300</v>
       </c>
       <c r="T89" s="15"/>
       <c r="U89" s="15">
-        <f t="shared" ref="U89:U91" si="70">2*P89</f>
+        <f t="shared" ref="U89:U91" si="80">2*P89</f>
         <v>48</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>48</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" ref="W89:W91" si="71">P89</f>
+        <f t="shared" ref="W89:W91" si="81">P89</f>
         <v>24</v>
       </c>
       <c r="X89" s="15">
@@ -13039,11 +13274,11 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>14.666666666666666</v>
       </c>
       <c r="AA89" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AB89" s="2">
@@ -13080,18 +13315,21 @@
         <v>140</v>
       </c>
       <c r="AM89" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>21</v>
       </c>
       <c r="AN89" s="2">
-        <f>ROUND(G89*V89,0)</f>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="AO89" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AP89" s="2"/>
+      <c r="AP89" s="2">
+        <f t="shared" si="74"/>
+        <v>5.0400000000000009</v>
+      </c>
       <c r="AQ89" s="2"/>
       <c r="AR89" s="2"/>
       <c r="AS89" s="2"/>
@@ -13141,39 +13379,39 @@
         <v>106</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>20.8</v>
       </c>
       <c r="Q90" s="15">
-        <f t="shared" ref="Q90:Q91" si="72">10*P90-F90</f>
+        <f t="shared" ref="Q90:Q91" si="82">10*P90-F90</f>
         <v>176</v>
       </c>
       <c r="R90" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>250</v>
       </c>
       <c r="S90" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>250</v>
       </c>
       <c r="T90" s="15"/>
       <c r="U90" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>41.6</v>
       </c>
       <c r="V90" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>41.6</v>
       </c>
       <c r="W90" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>20.8</v>
       </c>
       <c r="X90" s="15">
@@ -13181,11 +13419,11 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>15.557692307692308</v>
       </c>
       <c r="AA90" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="AB90" s="2">
@@ -13220,18 +13458,21 @@
       </c>
       <c r="AL90" s="2"/>
       <c r="AM90" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>13</v>
       </c>
       <c r="AN90" s="2">
-        <f>ROUND(G90*V90,0)</f>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="AO90" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AP90" s="2"/>
+      <c r="AP90" s="2">
+        <f t="shared" si="74"/>
+        <v>3.12</v>
+      </c>
       <c r="AQ90" s="2"/>
       <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
@@ -13281,39 +13522,39 @@
         <v>131</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>26.2</v>
       </c>
       <c r="Q91" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>217</v>
       </c>
       <c r="R91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>300</v>
       </c>
       <c r="S91" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>300</v>
       </c>
       <c r="T91" s="15"/>
       <c r="U91" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>52.4</v>
       </c>
       <c r="V91" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>52.4</v>
       </c>
       <c r="W91" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>26.2</v>
       </c>
       <c r="X91" s="15">
@@ -13321,11 +13562,11 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>15.167938931297709</v>
       </c>
       <c r="AA91" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.717557251908397</v>
       </c>
       <c r="AB91" s="2">
@@ -13362,18 +13603,21 @@
         <v>140</v>
       </c>
       <c r="AM91" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>17</v>
       </c>
       <c r="AN91" s="2">
-        <f>ROUND(G91*V91,0)</f>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="AO91" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AP91" s="2"/>
+      <c r="AP91" s="2">
+        <f t="shared" si="74"/>
+        <v>4.3230000000000004</v>
+      </c>
       <c r="AQ91" s="2"/>
       <c r="AR91" s="2"/>
       <c r="AS91" s="2"/>
@@ -13423,43 +13667,43 @@
         <v>77</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>15.4</v>
       </c>
       <c r="Q92" s="15">
+        <f t="shared" si="72"/>
+        <v>53.200000000000017</v>
+      </c>
+      <c r="R92" s="15">
+        <f t="shared" si="67"/>
+        <v>53.200000000000017</v>
+      </c>
+      <c r="S92" s="15">
         <f t="shared" si="63"/>
-        <v>53.200000000000017</v>
-      </c>
-      <c r="R92" s="15">
-        <f t="shared" si="58"/>
-        <v>53.200000000000017</v>
-      </c>
-      <c r="S92" s="15">
-        <f t="shared" si="54"/>
         <v>53.200000000000017</v>
       </c>
       <c r="T92" s="15"/>
       <c r="U92" s="15"/>
       <c r="V92" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W92" s="15"/>
       <c r="X92" s="15"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AA92" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>9.545454545454545</v>
       </c>
       <c r="AB92" s="2">
@@ -13496,18 +13740,21 @@
         <v>136</v>
       </c>
       <c r="AM92" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="AN92" s="2">
-        <f>ROUND(G92*V92,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO92" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP92" s="2"/>
+      <c r="AP92" s="2">
+        <f t="shared" si="74"/>
+        <v>2.5409999999999999</v>
+      </c>
       <c r="AQ92" s="2"/>
       <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
@@ -13555,14 +13802,14 @@
         <v>84</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>16.8</v>
       </c>
       <c r="Q93" s="15">
@@ -13570,17 +13817,17 @@
         <v>126.60000000000002</v>
       </c>
       <c r="R93" s="15">
-        <f t="shared" ref="R93:R96" si="73">X93</f>
+        <f t="shared" ref="R93:R96" si="83">X93</f>
         <v>200</v>
       </c>
       <c r="S93" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>200</v>
       </c>
       <c r="T93" s="15"/>
       <c r="U93" s="15"/>
       <c r="V93" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W93" s="15"/>
@@ -13589,11 +13836,11 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>16.369047619047617</v>
       </c>
       <c r="AA93" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>4.4642857142857144</v>
       </c>
       <c r="AB93" s="2">
@@ -13628,18 +13875,21 @@
       </c>
       <c r="AL93" s="2"/>
       <c r="AM93" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>11</v>
       </c>
       <c r="AN93" s="2">
-        <f>ROUND(G93*V93,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO93" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AP93" s="2"/>
+      <c r="AP93" s="2">
+        <f t="shared" si="74"/>
+        <v>2.7720000000000002</v>
+      </c>
       <c r="AQ93" s="2"/>
       <c r="AR93" s="2"/>
       <c r="AS93" s="2"/>
@@ -13689,14 +13939,14 @@
         <v>450</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-18</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>86.4</v>
       </c>
       <c r="Q94" s="15">
@@ -13704,26 +13954,26 @@
         <v>664.2</v>
       </c>
       <c r="R94" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>850</v>
       </c>
       <c r="S94" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>650</v>
       </c>
       <c r="T94" s="15">
         <v>200</v>
       </c>
       <c r="U94" s="15">
-        <f t="shared" ref="U94:U96" si="74">2*P94</f>
+        <f t="shared" ref="U94:U96" si="84">2*P94</f>
         <v>172.8</v>
       </c>
       <c r="V94" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>372.8</v>
       </c>
       <c r="W94" s="15">
-        <f t="shared" ref="W94:W96" si="75">P94</f>
+        <f t="shared" ref="W94:W96" si="85">P94</f>
         <v>86.4</v>
       </c>
       <c r="X94" s="15">
@@ -13731,11 +13981,11 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>12.150462962962962</v>
       </c>
       <c r="AA94" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0.3125</v>
       </c>
       <c r="AB94" s="2">
@@ -13770,18 +14020,21 @@
       </c>
       <c r="AL94" s="2"/>
       <c r="AM94" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>244</v>
       </c>
       <c r="AN94" s="2">
-        <f>ROUND(G94*V94,0)</f>
+        <f t="shared" si="62"/>
         <v>140</v>
       </c>
       <c r="AO94" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>32</v>
       </c>
-      <c r="AP94" s="2"/>
+      <c r="AP94" s="2">
+        <f t="shared" si="74"/>
+        <v>97.200000000000017</v>
+      </c>
       <c r="AQ94" s="2"/>
       <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
@@ -13831,39 +14084,39 @@
         <v>193</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>38.200000000000003</v>
       </c>
       <c r="Q95" s="15">
-        <f t="shared" ref="Q95:Q96" si="76">10*P95-F95</f>
+        <f t="shared" ref="Q95:Q96" si="86">10*P95-F95</f>
         <v>311</v>
       </c>
       <c r="R95" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>400</v>
       </c>
       <c r="S95" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>400</v>
       </c>
       <c r="T95" s="15"/>
       <c r="U95" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>76.400000000000006</v>
       </c>
       <c r="V95" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>76.400000000000006</v>
       </c>
       <c r="W95" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>38.200000000000003</v>
       </c>
       <c r="X95" s="15">
@@ -13871,11 +14124,11 @@
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>14.32984293193717</v>
       </c>
       <c r="AA95" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.8586387434554972</v>
       </c>
       <c r="AB95" s="2">
@@ -13912,18 +14165,21 @@
         <v>140</v>
       </c>
       <c r="AM95" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>28</v>
       </c>
       <c r="AN95" s="2">
-        <f>ROUND(G95*V95,0)</f>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="AO95" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AP95" s="2"/>
+      <c r="AP95" s="2">
+        <f t="shared" si="74"/>
+        <v>8.022000000000002</v>
+      </c>
       <c r="AQ95" s="2"/>
       <c r="AR95" s="2"/>
       <c r="AS95" s="2"/>
@@ -13973,39 +14229,39 @@
         <v>182</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-4</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>35.6</v>
       </c>
       <c r="Q96" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>300</v>
       </c>
       <c r="R96" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>400</v>
       </c>
       <c r="S96" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>400</v>
       </c>
       <c r="T96" s="15"/>
       <c r="U96" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>71.2</v>
       </c>
       <c r="V96" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>71.2</v>
       </c>
       <c r="W96" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>35.6</v>
       </c>
       <c r="X96" s="15">
@@ -14013,11 +14269,11 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>14.808988764044944</v>
       </c>
       <c r="AA96" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1.5730337078651684</v>
       </c>
       <c r="AB96" s="2">
@@ -14054,18 +14310,21 @@
         <v>140</v>
       </c>
       <c r="AM96" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>28</v>
       </c>
       <c r="AN96" s="2">
-        <f>ROUND(G96*V96,0)</f>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="AO96" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AP96" s="2"/>
+      <c r="AP96" s="2">
+        <f t="shared" si="74"/>
+        <v>7.4760000000000009</v>
+      </c>
       <c r="AQ96" s="2"/>
       <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
@@ -14082,7 +14341,7 @@
       <c r="BD96" s="2"/>
       <c r="BE96" s="2"/>
     </row>
-    <row r="97" spans="1:57">
+    <row r="97" spans="1:57" hidden="1">
       <c r="A97" s="7" t="s">
         <v>148</v>
       </c>
@@ -14117,23 +14376,23 @@
         <v>31</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>5.8</v>
       </c>
       <c r="Q97" s="16"/>
       <c r="R97" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S97" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T97" s="15"/>
@@ -14143,11 +14402,11 @@
       <c r="X97" s="16"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-4.6551724137931032</v>
       </c>
       <c r="AA97" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-4.6551724137931032</v>
       </c>
       <c r="AB97" s="7">
@@ -14182,15 +14441,15 @@
       </c>
       <c r="AL97" s="7"/>
       <c r="AM97" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN97" s="2">
-        <f>ROUND(G97*V97,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO97" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP97" s="2"/>
@@ -14210,7 +14469,7 @@
       <c r="BD97" s="2"/>
       <c r="BE97" s="2"/>
     </row>
-    <row r="98" spans="1:57">
+    <row r="98" spans="1:57" hidden="1">
       <c r="A98" s="7" t="s">
         <v>150</v>
       </c>
@@ -14245,23 +14504,23 @@
         <v>283</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-4</v>
       </c>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>55.8</v>
       </c>
       <c r="Q98" s="16"/>
       <c r="R98" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S98" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T98" s="15"/>
@@ -14271,11 +14530,11 @@
       <c r="X98" s="16"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-3.5663082437275988</v>
       </c>
       <c r="AA98" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-3.5663082437275988</v>
       </c>
       <c r="AB98" s="7">
@@ -14310,15 +14569,15 @@
       </c>
       <c r="AL98" s="7"/>
       <c r="AM98" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN98" s="2">
-        <f>ROUND(G98*V98,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP98" s="2"/>
@@ -14338,7 +14597,7 @@
       <c r="BD98" s="2"/>
       <c r="BE98" s="2"/>
     </row>
-    <row r="99" spans="1:57">
+    <row r="99" spans="1:57" hidden="1">
       <c r="A99" s="7" t="s">
         <v>151</v>
       </c>
@@ -14373,23 +14632,23 @@
         <v>263</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>52.2</v>
       </c>
       <c r="Q99" s="16"/>
       <c r="R99" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S99" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T99" s="15"/>
@@ -14399,11 +14658,11 @@
       <c r="X99" s="16"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-3.3716475095785441</v>
       </c>
       <c r="AA99" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-3.3716475095785441</v>
       </c>
       <c r="AB99" s="7">
@@ -14438,15 +14697,15 @@
       </c>
       <c r="AL99" s="7"/>
       <c r="AM99" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN99" s="2">
-        <f>ROUND(G99*V99,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO99" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP99" s="2"/>
@@ -14466,7 +14725,7 @@
       <c r="BD99" s="2"/>
       <c r="BE99" s="2"/>
     </row>
-    <row r="100" spans="1:57">
+    <row r="100" spans="1:57" hidden="1">
       <c r="A100" s="7" t="s">
         <v>152</v>
       </c>
@@ -14501,23 +14760,23 @@
         <v>275</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>-4.7169999999999845</v>
       </c>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>54.056600000000003</v>
       </c>
       <c r="Q100" s="16"/>
       <c r="R100" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S100" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T100" s="15"/>
@@ -14527,11 +14786,11 @@
       <c r="X100" s="16"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-3.8002945061287612</v>
       </c>
       <c r="AA100" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-3.8002945061287612</v>
       </c>
       <c r="AB100" s="7">
@@ -14566,15 +14825,15 @@
       </c>
       <c r="AL100" s="7"/>
       <c r="AM100" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN100" s="2">
-        <f>ROUND(G100*V100,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO100" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP100" s="2"/>
@@ -14594,7 +14853,7 @@
       <c r="BD100" s="2"/>
       <c r="BE100" s="2"/>
     </row>
-    <row r="101" spans="1:57">
+    <row r="101" spans="1:57" hidden="1">
       <c r="A101" s="7" t="s">
         <v>153</v>
       </c>
@@ -14629,23 +14888,23 @@
         <v>20.3</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2.902000000000001</v>
       </c>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
       <c r="P101" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>4.6404000000000005</v>
       </c>
       <c r="Q101" s="16"/>
       <c r="R101" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S101" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T101" s="15"/>
@@ -14655,11 +14914,11 @@
       <c r="X101" s="16"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-3.4285837427807944</v>
       </c>
       <c r="AA101" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-3.4285837427807944</v>
       </c>
       <c r="AB101" s="7">
@@ -14694,15 +14953,15 @@
       </c>
       <c r="AL101" s="7"/>
       <c r="AM101" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AN101" s="2">
-        <f>ROUND(G101*V101,0)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO101" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AP101" s="2"/>
@@ -14768,7 +15027,10 @@
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
       <c r="AO102" s="2"/>
-      <c r="AP102" s="2"/>
+      <c r="AP102" s="2">
+        <f t="shared" ref="AP102:AP111" si="87">P102*G102*3</f>
+        <v>0</v>
+      </c>
       <c r="AQ102" s="2"/>
       <c r="AR102" s="2"/>
       <c r="AS102" s="2"/>
@@ -14831,7 +15093,10 @@
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
-      <c r="AP103" s="2"/>
+      <c r="AP103" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ103" s="2"/>
       <c r="AR103" s="2"/>
       <c r="AS103" s="2"/>
@@ -14894,7 +15159,10 @@
       <c r="AM104" s="2"/>
       <c r="AN104" s="2"/>
       <c r="AO104" s="2"/>
-      <c r="AP104" s="2"/>
+      <c r="AP104" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ104" s="2"/>
       <c r="AR104" s="2"/>
       <c r="AS104" s="2"/>
@@ -14957,7 +15225,10 @@
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
-      <c r="AP105" s="2"/>
+      <c r="AP105" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ105" s="2"/>
       <c r="AR105" s="2"/>
       <c r="AS105" s="2"/>
@@ -15020,7 +15291,10 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
-      <c r="AP106" s="2"/>
+      <c r="AP106" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ106" s="2"/>
       <c r="AR106" s="2"/>
       <c r="AS106" s="2"/>
@@ -15083,7 +15357,10 @@
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
-      <c r="AP107" s="2"/>
+      <c r="AP107" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ107" s="2"/>
       <c r="AR107" s="2"/>
       <c r="AS107" s="2"/>
@@ -15146,7 +15423,10 @@
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
-      <c r="AP108" s="2"/>
+      <c r="AP108" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ108" s="2"/>
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
@@ -15209,7 +15489,10 @@
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
       <c r="AO109" s="2"/>
-      <c r="AP109" s="2"/>
+      <c r="AP109" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ109" s="2"/>
       <c r="AR109" s="2"/>
       <c r="AS109" s="2"/>
@@ -15272,7 +15555,10 @@
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
       <c r="AO110" s="2"/>
-      <c r="AP110" s="2"/>
+      <c r="AP110" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ110" s="2"/>
       <c r="AR110" s="2"/>
       <c r="AS110" s="2"/>
@@ -15335,7 +15621,10 @@
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
-      <c r="AP111" s="2"/>
+      <c r="AP111" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="AQ111" s="2"/>
       <c r="AR111" s="2"/>
       <c r="AS111" s="2"/>
@@ -38068,7 +38357,26 @@
       <c r="BE496" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AM111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AM111" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0,05"/>
+        <filter val="0,06"/>
+        <filter val="0,07"/>
+        <filter val="0,10"/>
+        <filter val="0,12"/>
+        <filter val="0,17"/>
+        <filter val="0,30"/>
+        <filter val="0,33"/>
+        <filter val="0,35"/>
+        <filter val="0,38"/>
+        <filter val="0,40"/>
+        <filter val="0,45"/>
+        <filter val="0,50"/>
+        <filter val="1,00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
